--- a/demo/demo-format.xlsx
+++ b/demo/demo-format.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="上下班打卡_月报" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,17 +397,3479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1" xml:space="preserve">
+      <c r="A1" t="str">
+        <v>序号</v>
+      </c>
+      <c r="B1" t="str" xml:space="preserve">
+        <v xml:space="preserve">日期_x000d_
+姓名</v>
+      </c>
+      <c r="C1" t="str" xml:space="preserve">
+        <v xml:space="preserve">1
+</v>
+      </c>
+      <c r="D1" t="str" xml:space="preserve">
+        <v xml:space="preserve">2
+</v>
+      </c>
+      <c r="E1" t="str" xml:space="preserve">
+        <v xml:space="preserve">3
+</v>
+      </c>
+      <c r="F1" t="str" xml:space="preserve">
+        <v xml:space="preserve">4
+</v>
+      </c>
+      <c r="G1" t="str" xml:space="preserve">
+        <v xml:space="preserve">5
+</v>
+      </c>
+      <c r="H1" t="str" xml:space="preserve">
+        <v xml:space="preserve">6
+</v>
+      </c>
+      <c r="I1" t="str" xml:space="preserve">
+        <v xml:space="preserve">7
+</v>
+      </c>
+      <c r="J1" t="str" xml:space="preserve">
+        <v xml:space="preserve">8
+</v>
+      </c>
+      <c r="K1" t="str" xml:space="preserve">
+        <v xml:space="preserve">9
+</v>
+      </c>
+      <c r="L1" t="str" xml:space="preserve">
+        <v xml:space="preserve">10
+</v>
+      </c>
+      <c r="M1" t="str" xml:space="preserve">
+        <v xml:space="preserve">11
+</v>
+      </c>
+      <c r="N1" t="str" xml:space="preserve">
+        <v xml:space="preserve">12
+</v>
+      </c>
+      <c r="O1" t="str" xml:space="preserve">
+        <v xml:space="preserve">13
+</v>
+      </c>
+      <c r="P1" t="str" xml:space="preserve">
+        <v xml:space="preserve">14
+</v>
+      </c>
+      <c r="Q1" t="str" xml:space="preserve">
+        <v xml:space="preserve">15
+</v>
+      </c>
+      <c r="R1" t="str" xml:space="preserve">
+        <v xml:space="preserve">16
+</v>
+      </c>
+      <c r="S1" t="str" xml:space="preserve">
+        <v xml:space="preserve">17
+</v>
+      </c>
+      <c r="T1" t="str" xml:space="preserve">
+        <v xml:space="preserve">18
+</v>
+      </c>
+      <c r="U1" t="str" xml:space="preserve">
+        <v xml:space="preserve">19
+</v>
+      </c>
+      <c r="V1" t="str" xml:space="preserve">
+        <v xml:space="preserve">20
+</v>
+      </c>
+      <c r="W1" t="str" xml:space="preserve">
+        <v xml:space="preserve">21
+</v>
+      </c>
+      <c r="X1" t="str" xml:space="preserve">
+        <v xml:space="preserve">22
+</v>
+      </c>
+      <c r="Y1" t="str" xml:space="preserve">
+        <v xml:space="preserve">23
+</v>
+      </c>
+      <c r="Z1" t="str" xml:space="preserve">
+        <v xml:space="preserve">24
+</v>
+      </c>
+      <c r="AA1" t="str" xml:space="preserve">
+        <v xml:space="preserve">25
+</v>
+      </c>
+      <c r="AB1" t="str" xml:space="preserve">
+        <v xml:space="preserve">26
+</v>
+      </c>
+      <c r="AC1" t="str" xml:space="preserve">
+        <v xml:space="preserve">27
+</v>
+      </c>
+      <c r="AD1" t="str" xml:space="preserve">
+        <v xml:space="preserve">28
+</v>
+      </c>
+      <c r="AE1" t="str" xml:space="preserve">
+        <v xml:space="preserve">29
+</v>
+      </c>
+      <c r="AF1" t="str" xml:space="preserve">
+        <v xml:space="preserve">30
+</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>三</v>
+      </c>
+      <c r="D2" t="str">
+        <v>四</v>
+      </c>
+      <c r="E2" t="str">
+        <v>五</v>
+      </c>
+      <c r="F2" t="str">
+        <v>六</v>
+      </c>
+      <c r="G2" t="str">
+        <v>日</v>
+      </c>
+      <c r="H2" t="str">
+        <v>一</v>
+      </c>
+      <c r="I2" t="str">
+        <v>二</v>
+      </c>
+      <c r="J2" t="str">
+        <v>三</v>
+      </c>
+      <c r="K2" t="str">
+        <v>四</v>
+      </c>
+      <c r="L2" t="str">
+        <v>五</v>
+      </c>
+      <c r="M2" t="str">
+        <v>六</v>
+      </c>
+      <c r="N2" t="str">
+        <v>日</v>
+      </c>
+      <c r="O2" t="str">
+        <v>一</v>
+      </c>
+      <c r="P2" t="str">
+        <v>二</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>三</v>
+      </c>
+      <c r="R2" t="str">
+        <v>四</v>
+      </c>
+      <c r="S2" t="str">
+        <v>五</v>
+      </c>
+      <c r="T2" t="str">
+        <v>六</v>
+      </c>
+      <c r="U2" t="str">
+        <v>日</v>
+      </c>
+      <c r="V2" t="str">
+        <v>一</v>
+      </c>
+      <c r="W2" t="str">
+        <v>二</v>
+      </c>
+      <c r="X2" t="str">
+        <v>三</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>四</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>五</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>六</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>日</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>一</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>二</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>三</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>四</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>姜龙</v>
+      </c>
+      <c r="C3" t="str">
+        <v>--</v>
+      </c>
+      <c r="D3" t="str">
+        <v>--</v>
+      </c>
+      <c r="E3" t="str">
+        <v>--</v>
+      </c>
+      <c r="F3" t="str">
+        <v>休</v>
+      </c>
+      <c r="G3" t="str">
+        <v>休</v>
+      </c>
+      <c r="H3" t="str">
+        <v>--</v>
+      </c>
+      <c r="I3" t="str">
+        <v>--</v>
+      </c>
+      <c r="J3" t="str">
+        <v>--</v>
+      </c>
+      <c r="K3" t="str">
+        <v>--</v>
+      </c>
+      <c r="L3" t="str">
+        <v>--</v>
+      </c>
+      <c r="M3" t="str">
+        <v>休</v>
+      </c>
+      <c r="N3" t="str">
+        <v>休</v>
+      </c>
+      <c r="O3" t="str">
+        <v>--</v>
+      </c>
+      <c r="P3" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>--</v>
+      </c>
+      <c r="R3" t="str">
+        <v>--</v>
+      </c>
+      <c r="S3" t="str">
+        <v>--</v>
+      </c>
+      <c r="T3" t="str">
+        <v>休</v>
+      </c>
+      <c r="U3" t="str">
+        <v>休</v>
+      </c>
+      <c r="V3" t="str">
+        <v>--</v>
+      </c>
+      <c r="W3" t="str">
+        <v>--</v>
+      </c>
+      <c r="X3" t="str">
+        <v>16:34;</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>○</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>09:28;</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>10:25;</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>王亚兰</v>
+      </c>
+      <c r="C4" t="str">
+        <v>--</v>
+      </c>
+      <c r="D4" t="str">
+        <v>--</v>
+      </c>
+      <c r="E4" t="str">
+        <v>--</v>
+      </c>
+      <c r="F4" t="str">
+        <v>休</v>
+      </c>
+      <c r="G4" t="str">
+        <v>休</v>
+      </c>
+      <c r="H4" t="str">
+        <v>▲</v>
+      </c>
+      <c r="I4" t="str">
+        <v>√</v>
+      </c>
+      <c r="J4" t="str">
+        <v>√</v>
+      </c>
+      <c r="K4" t="str">
+        <v>√</v>
+      </c>
+      <c r="L4" t="str">
+        <v>▲</v>
+      </c>
+      <c r="M4" t="str">
+        <v>√</v>
+      </c>
+      <c r="N4" t="str">
+        <v>休</v>
+      </c>
+      <c r="O4" t="str">
+        <v>√</v>
+      </c>
+      <c r="P4" t="str">
+        <v>√</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>▲</v>
+      </c>
+      <c r="R4" t="str">
+        <v>▲</v>
+      </c>
+      <c r="S4" t="str">
+        <v>√</v>
+      </c>
+      <c r="T4" t="str">
+        <v>休</v>
+      </c>
+      <c r="U4" t="str">
+        <v>休</v>
+      </c>
+      <c r="V4" t="str">
+        <v>√</v>
+      </c>
+      <c r="W4" t="str">
+        <v>√</v>
+      </c>
+      <c r="X4" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>√</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC4" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF4" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>陶书波</v>
+      </c>
+      <c r="C5" t="str">
+        <v>--</v>
+      </c>
+      <c r="D5" t="str">
+        <v>--</v>
+      </c>
+      <c r="E5" t="str">
+        <v>--</v>
+      </c>
+      <c r="F5" t="str">
+        <v>休</v>
+      </c>
+      <c r="G5" t="str">
+        <v>休</v>
+      </c>
+      <c r="H5" t="str">
+        <v>--</v>
+      </c>
+      <c r="I5" t="str">
+        <v>--</v>
+      </c>
+      <c r="J5" t="str">
+        <v>--</v>
+      </c>
+      <c r="K5" t="str">
+        <v>--</v>
+      </c>
+      <c r="L5" t="str">
+        <v>--</v>
+      </c>
+      <c r="M5" t="str">
+        <v>休</v>
+      </c>
+      <c r="N5" t="str">
+        <v>休</v>
+      </c>
+      <c r="O5" t="str">
+        <v>--</v>
+      </c>
+      <c r="P5" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>--</v>
+      </c>
+      <c r="R5" t="str">
+        <v>--</v>
+      </c>
+      <c r="S5" t="str">
+        <v>--</v>
+      </c>
+      <c r="T5" t="str">
+        <v>休</v>
+      </c>
+      <c r="U5" t="str">
+        <v>休</v>
+      </c>
+      <c r="V5" t="str">
+        <v>--</v>
+      </c>
+      <c r="W5" t="str">
+        <v>--</v>
+      </c>
+      <c r="X5" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF5" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>陶启洪</v>
+      </c>
+      <c r="C6" t="str">
+        <v>--</v>
+      </c>
+      <c r="D6" t="str">
+        <v>--</v>
+      </c>
+      <c r="E6" t="str">
+        <v>--</v>
+      </c>
+      <c r="F6" t="str">
+        <v>休</v>
+      </c>
+      <c r="G6" t="str">
+        <v>休</v>
+      </c>
+      <c r="H6" t="str">
+        <v>--</v>
+      </c>
+      <c r="I6" t="str">
+        <v>18:58;</v>
+      </c>
+      <c r="J6" t="str">
+        <v>▲</v>
+      </c>
+      <c r="K6" t="str">
+        <v>▲</v>
+      </c>
+      <c r="L6" t="str">
+        <v>18:03;</v>
+      </c>
+      <c r="M6" t="str">
+        <v>18:24;</v>
+      </c>
+      <c r="N6" t="str">
+        <v>休</v>
+      </c>
+      <c r="O6" t="str">
+        <v>▲</v>
+      </c>
+      <c r="P6" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>--</v>
+      </c>
+      <c r="R6" t="str">
+        <v>--</v>
+      </c>
+      <c r="S6" t="str">
+        <v>○</v>
+      </c>
+      <c r="T6" t="str">
+        <v>√</v>
+      </c>
+      <c r="U6" t="str">
+        <v>√</v>
+      </c>
+      <c r="V6" t="str">
+        <v>√</v>
+      </c>
+      <c r="W6" t="str">
+        <v>07:58;</v>
+      </c>
+      <c r="X6" t="str">
+        <v>√</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AE6" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF6" t="str">
+        <v>07:51;</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>李育富</v>
+      </c>
+      <c r="C7" t="str">
+        <v>--</v>
+      </c>
+      <c r="D7" t="str">
+        <v>--</v>
+      </c>
+      <c r="E7" t="str">
+        <v>--</v>
+      </c>
+      <c r="F7" t="str">
+        <v>休</v>
+      </c>
+      <c r="G7" t="str">
+        <v>休</v>
+      </c>
+      <c r="H7" t="str">
+        <v>--</v>
+      </c>
+      <c r="I7" t="str">
+        <v>--</v>
+      </c>
+      <c r="J7" t="str">
+        <v>--</v>
+      </c>
+      <c r="K7" t="str">
+        <v>--</v>
+      </c>
+      <c r="L7" t="str">
+        <v>--</v>
+      </c>
+      <c r="M7" t="str">
+        <v>休</v>
+      </c>
+      <c r="N7" t="str">
+        <v>休</v>
+      </c>
+      <c r="O7" t="str">
+        <v>--</v>
+      </c>
+      <c r="P7" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>--</v>
+      </c>
+      <c r="R7" t="str">
+        <v>--</v>
+      </c>
+      <c r="S7" t="str">
+        <v>--</v>
+      </c>
+      <c r="T7" t="str">
+        <v>休</v>
+      </c>
+      <c r="U7" t="str">
+        <v>休</v>
+      </c>
+      <c r="V7" t="str">
+        <v>--</v>
+      </c>
+      <c r="W7" t="str">
+        <v>--</v>
+      </c>
+      <c r="X7" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD7" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE7" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF7" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>王利</v>
+      </c>
+      <c r="C8" t="str">
+        <v>--</v>
+      </c>
+      <c r="D8" t="str">
+        <v>--</v>
+      </c>
+      <c r="E8" t="str">
+        <v>--</v>
+      </c>
+      <c r="F8" t="str">
+        <v>休</v>
+      </c>
+      <c r="G8" t="str">
+        <v>休</v>
+      </c>
+      <c r="H8" t="str">
+        <v>--</v>
+      </c>
+      <c r="I8" t="str">
+        <v>--</v>
+      </c>
+      <c r="J8" t="str">
+        <v>--</v>
+      </c>
+      <c r="K8" t="str">
+        <v>--</v>
+      </c>
+      <c r="L8" t="str">
+        <v>--</v>
+      </c>
+      <c r="M8" t="str">
+        <v>休</v>
+      </c>
+      <c r="N8" t="str">
+        <v>休</v>
+      </c>
+      <c r="O8" t="str">
+        <v>--</v>
+      </c>
+      <c r="P8" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>--</v>
+      </c>
+      <c r="R8" t="str">
+        <v>--</v>
+      </c>
+      <c r="S8" t="str">
+        <v>--</v>
+      </c>
+      <c r="T8" t="str">
+        <v>休</v>
+      </c>
+      <c r="U8" t="str">
+        <v>休</v>
+      </c>
+      <c r="V8" t="str">
+        <v>--</v>
+      </c>
+      <c r="W8" t="str">
+        <v>--</v>
+      </c>
+      <c r="X8" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC8" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE8" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF8" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>邓先林</v>
+      </c>
+      <c r="C9" t="str">
+        <v>--</v>
+      </c>
+      <c r="D9" t="str">
+        <v>--</v>
+      </c>
+      <c r="E9" t="str">
+        <v>--</v>
+      </c>
+      <c r="F9" t="str">
+        <v>休</v>
+      </c>
+      <c r="G9" t="str">
+        <v>休</v>
+      </c>
+      <c r="H9" t="str">
+        <v>--</v>
+      </c>
+      <c r="I9" t="str">
+        <v>--</v>
+      </c>
+      <c r="J9" t="str">
+        <v>--</v>
+      </c>
+      <c r="K9" t="str">
+        <v>--</v>
+      </c>
+      <c r="L9" t="str">
+        <v>--</v>
+      </c>
+      <c r="M9" t="str">
+        <v>休</v>
+      </c>
+      <c r="N9" t="str">
+        <v>休</v>
+      </c>
+      <c r="O9" t="str">
+        <v>--</v>
+      </c>
+      <c r="P9" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>--</v>
+      </c>
+      <c r="R9" t="str">
+        <v>--</v>
+      </c>
+      <c r="S9" t="str">
+        <v>--</v>
+      </c>
+      <c r="T9" t="str">
+        <v>休</v>
+      </c>
+      <c r="U9" t="str">
+        <v>休</v>
+      </c>
+      <c r="V9" t="str">
+        <v>--</v>
+      </c>
+      <c r="W9" t="str">
+        <v>--</v>
+      </c>
+      <c r="X9" t="str">
+        <v>17:51;</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD9" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE9" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF9" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>陶丽</v>
+      </c>
+      <c r="C10" t="str">
+        <v>--</v>
+      </c>
+      <c r="D10" t="str">
+        <v>--</v>
+      </c>
+      <c r="E10" t="str">
+        <v>--</v>
+      </c>
+      <c r="F10" t="str">
+        <v>休</v>
+      </c>
+      <c r="G10" t="str">
+        <v>休</v>
+      </c>
+      <c r="H10" t="str">
+        <v>--</v>
+      </c>
+      <c r="I10" t="str">
+        <v>▲</v>
+      </c>
+      <c r="J10" t="str">
+        <v>○</v>
+      </c>
+      <c r="K10" t="str">
+        <v>√</v>
+      </c>
+      <c r="L10" t="str">
+        <v>√</v>
+      </c>
+      <c r="M10" t="str">
+        <v>√</v>
+      </c>
+      <c r="N10" t="str">
+        <v>休</v>
+      </c>
+      <c r="O10" t="str">
+        <v>▲</v>
+      </c>
+      <c r="P10" t="str">
+        <v>○</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>√</v>
+      </c>
+      <c r="R10" t="str">
+        <v>○</v>
+      </c>
+      <c r="S10" t="str">
+        <v>08:32;</v>
+      </c>
+      <c r="T10" t="str">
+        <v>休</v>
+      </c>
+      <c r="U10" t="str">
+        <v>休</v>
+      </c>
+      <c r="V10" t="str">
+        <v>▲</v>
+      </c>
+      <c r="W10" t="str">
+        <v>√</v>
+      </c>
+      <c r="X10" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA10" t="str">
+        <v>√</v>
+      </c>
+      <c r="AB10" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>○</v>
+      </c>
+      <c r="AE10" t="str">
+        <v>○</v>
+      </c>
+      <c r="AF10" t="str">
+        <v>○</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>阳爱军</v>
+      </c>
+      <c r="C11" t="str">
+        <v>--</v>
+      </c>
+      <c r="D11" t="str">
+        <v>--</v>
+      </c>
+      <c r="E11" t="str">
+        <v>--</v>
+      </c>
+      <c r="F11" t="str">
+        <v>休</v>
+      </c>
+      <c r="G11" t="str">
+        <v>休</v>
+      </c>
+      <c r="H11" t="str">
+        <v>--</v>
+      </c>
+      <c r="I11" t="str">
+        <v>--</v>
+      </c>
+      <c r="J11" t="str">
+        <v>--</v>
+      </c>
+      <c r="K11" t="str">
+        <v>--</v>
+      </c>
+      <c r="L11" t="str">
+        <v>--</v>
+      </c>
+      <c r="M11" t="str">
+        <v>休</v>
+      </c>
+      <c r="N11" t="str">
+        <v>休</v>
+      </c>
+      <c r="O11" t="str">
+        <v>--</v>
+      </c>
+      <c r="P11" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>--</v>
+      </c>
+      <c r="R11" t="str">
+        <v>--</v>
+      </c>
+      <c r="S11" t="str">
+        <v>--</v>
+      </c>
+      <c r="T11" t="str">
+        <v>休</v>
+      </c>
+      <c r="U11" t="str">
+        <v>休</v>
+      </c>
+      <c r="V11" t="str">
+        <v>--</v>
+      </c>
+      <c r="W11" t="str">
+        <v>--</v>
+      </c>
+      <c r="X11" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB11" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC11" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD11" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE11" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF11" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <v>王东升</v>
+      </c>
+      <c r="C12" t="str">
+        <v>--</v>
+      </c>
+      <c r="D12" t="str">
+        <v>--</v>
+      </c>
+      <c r="E12" t="str">
+        <v>--</v>
+      </c>
+      <c r="F12" t="str">
+        <v>休</v>
+      </c>
+      <c r="G12" t="str">
+        <v>休</v>
+      </c>
+      <c r="H12" t="str">
+        <v>--</v>
+      </c>
+      <c r="I12" t="str">
+        <v>--</v>
+      </c>
+      <c r="J12" t="str">
+        <v>--</v>
+      </c>
+      <c r="K12" t="str">
+        <v>--</v>
+      </c>
+      <c r="L12" t="str">
+        <v>--</v>
+      </c>
+      <c r="M12" t="str">
+        <v>休</v>
+      </c>
+      <c r="N12" t="str">
+        <v>休</v>
+      </c>
+      <c r="O12" t="str">
+        <v>--</v>
+      </c>
+      <c r="P12" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>--</v>
+      </c>
+      <c r="R12" t="str">
+        <v>--</v>
+      </c>
+      <c r="S12" t="str">
+        <v>--</v>
+      </c>
+      <c r="T12" t="str">
+        <v>休</v>
+      </c>
+      <c r="U12" t="str">
+        <v>休</v>
+      </c>
+      <c r="V12" t="str">
+        <v>--</v>
+      </c>
+      <c r="W12" t="str">
+        <v>--</v>
+      </c>
+      <c r="X12" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>09:46;</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>10:27;</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB12" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>20:50;</v>
+      </c>
+      <c r="AE12" t="str">
+        <v>08:39;</v>
+      </c>
+      <c r="AF12" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <v>王鸿</v>
+      </c>
+      <c r="C13" t="str">
+        <v>--</v>
+      </c>
+      <c r="D13" t="str">
+        <v>--</v>
+      </c>
+      <c r="E13" t="str">
+        <v>--</v>
+      </c>
+      <c r="F13" t="str">
+        <v>休</v>
+      </c>
+      <c r="G13" t="str">
+        <v>休</v>
+      </c>
+      <c r="H13" t="str">
+        <v>--</v>
+      </c>
+      <c r="I13" t="str">
+        <v>--</v>
+      </c>
+      <c r="J13" t="str">
+        <v>--</v>
+      </c>
+      <c r="K13" t="str">
+        <v>--</v>
+      </c>
+      <c r="L13" t="str">
+        <v>--</v>
+      </c>
+      <c r="M13" t="str">
+        <v>休</v>
+      </c>
+      <c r="N13" t="str">
+        <v>休</v>
+      </c>
+      <c r="O13" t="str">
+        <v>--</v>
+      </c>
+      <c r="P13" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>--</v>
+      </c>
+      <c r="R13" t="str">
+        <v>--</v>
+      </c>
+      <c r="S13" t="str">
+        <v>--</v>
+      </c>
+      <c r="T13" t="str">
+        <v>休</v>
+      </c>
+      <c r="U13" t="str">
+        <v>休</v>
+      </c>
+      <c r="V13" t="str">
+        <v>--</v>
+      </c>
+      <c r="W13" t="str">
+        <v>--</v>
+      </c>
+      <c r="X13" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB13" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC13" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD13" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE13" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF13" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>黎艳</v>
+      </c>
+      <c r="C14" t="str">
+        <v>--</v>
+      </c>
+      <c r="D14" t="str">
+        <v>--</v>
+      </c>
+      <c r="E14" t="str">
+        <v>--</v>
+      </c>
+      <c r="F14" t="str">
+        <v>休</v>
+      </c>
+      <c r="G14" t="str">
+        <v>休</v>
+      </c>
+      <c r="H14" t="str">
+        <v>--</v>
+      </c>
+      <c r="I14" t="str">
+        <v>--</v>
+      </c>
+      <c r="J14" t="str">
+        <v>--</v>
+      </c>
+      <c r="K14" t="str">
+        <v>--</v>
+      </c>
+      <c r="L14" t="str">
+        <v>--</v>
+      </c>
+      <c r="M14" t="str">
+        <v>休</v>
+      </c>
+      <c r="N14" t="str">
+        <v>休</v>
+      </c>
+      <c r="O14" t="str">
+        <v>--</v>
+      </c>
+      <c r="P14" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>--</v>
+      </c>
+      <c r="R14" t="str">
+        <v>--</v>
+      </c>
+      <c r="S14" t="str">
+        <v>--</v>
+      </c>
+      <c r="T14" t="str">
+        <v>休</v>
+      </c>
+      <c r="U14" t="str">
+        <v>休</v>
+      </c>
+      <c r="V14" t="str">
+        <v>--</v>
+      </c>
+      <c r="W14" t="str">
+        <v>--</v>
+      </c>
+      <c r="X14" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA14" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AB14" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD14" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE14" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF14" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="str">
+        <v>程译萱</v>
+      </c>
+      <c r="C15" t="str">
+        <v>09:00;</v>
+      </c>
+      <c r="D15" t="str">
+        <v>--</v>
+      </c>
+      <c r="E15" t="str">
+        <v>--</v>
+      </c>
+      <c r="F15" t="str">
+        <v>休</v>
+      </c>
+      <c r="G15" t="str">
+        <v>休</v>
+      </c>
+      <c r="H15" t="str">
+        <v>--</v>
+      </c>
+      <c r="I15" t="str">
+        <v>--</v>
+      </c>
+      <c r="J15" t="str">
+        <v>--</v>
+      </c>
+      <c r="K15" t="str">
+        <v>--</v>
+      </c>
+      <c r="L15" t="str">
+        <v>--</v>
+      </c>
+      <c r="M15" t="str">
+        <v>休</v>
+      </c>
+      <c r="N15" t="str">
+        <v>休</v>
+      </c>
+      <c r="O15" t="str">
+        <v>--</v>
+      </c>
+      <c r="P15" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>--</v>
+      </c>
+      <c r="R15" t="str">
+        <v>--</v>
+      </c>
+      <c r="S15" t="str">
+        <v>--</v>
+      </c>
+      <c r="T15" t="str">
+        <v>休</v>
+      </c>
+      <c r="U15" t="str">
+        <v>休</v>
+      </c>
+      <c r="V15" t="str">
+        <v>--</v>
+      </c>
+      <c r="W15" t="str">
+        <v>--</v>
+      </c>
+      <c r="X15" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA15" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB15" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>08:35;</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AE15" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF15" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str">
+        <v>陈林</v>
+      </c>
+      <c r="C16" t="str">
+        <v>--</v>
+      </c>
+      <c r="D16" t="str">
+        <v>--</v>
+      </c>
+      <c r="E16" t="str">
+        <v>--</v>
+      </c>
+      <c r="F16" t="str">
+        <v>休</v>
+      </c>
+      <c r="G16" t="str">
+        <v>休</v>
+      </c>
+      <c r="H16" t="str">
+        <v>--</v>
+      </c>
+      <c r="I16" t="str">
+        <v>--</v>
+      </c>
+      <c r="J16" t="str">
+        <v>--</v>
+      </c>
+      <c r="K16" t="str">
+        <v>--</v>
+      </c>
+      <c r="L16" t="str">
+        <v>--</v>
+      </c>
+      <c r="M16" t="str">
+        <v>休</v>
+      </c>
+      <c r="N16" t="str">
+        <v>休</v>
+      </c>
+      <c r="O16" t="str">
+        <v>--</v>
+      </c>
+      <c r="P16" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>--</v>
+      </c>
+      <c r="R16" t="str">
+        <v>--</v>
+      </c>
+      <c r="S16" t="str">
+        <v>--</v>
+      </c>
+      <c r="T16" t="str">
+        <v>休</v>
+      </c>
+      <c r="U16" t="str">
+        <v>休</v>
+      </c>
+      <c r="V16" t="str">
+        <v>--</v>
+      </c>
+      <c r="W16" t="str">
+        <v>--</v>
+      </c>
+      <c r="X16" t="str">
+        <v>17:55;</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB16" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC16" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD16" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE16" t="str">
+        <v>17:41;</v>
+      </c>
+      <c r="AF16" t="str">
+        <v>17:52;</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="str">
+        <v>赵娜</v>
+      </c>
+      <c r="C17" t="str">
+        <v>--</v>
+      </c>
+      <c r="D17" t="str">
+        <v>--</v>
+      </c>
+      <c r="E17" t="str">
+        <v>--</v>
+      </c>
+      <c r="F17" t="str">
+        <v>休</v>
+      </c>
+      <c r="G17" t="str">
+        <v>休</v>
+      </c>
+      <c r="H17" t="str">
+        <v>--</v>
+      </c>
+      <c r="I17" t="str">
+        <v>--</v>
+      </c>
+      <c r="J17" t="str">
+        <v>--</v>
+      </c>
+      <c r="K17" t="str">
+        <v>--</v>
+      </c>
+      <c r="L17" t="str">
+        <v>--</v>
+      </c>
+      <c r="M17" t="str">
+        <v>休</v>
+      </c>
+      <c r="N17" t="str">
+        <v>休</v>
+      </c>
+      <c r="O17" t="str">
+        <v>--</v>
+      </c>
+      <c r="P17" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>--</v>
+      </c>
+      <c r="R17" t="str">
+        <v>--</v>
+      </c>
+      <c r="S17" t="str">
+        <v>--</v>
+      </c>
+      <c r="T17" t="str">
+        <v>休</v>
+      </c>
+      <c r="U17" t="str">
+        <v>休</v>
+      </c>
+      <c r="V17" t="str">
+        <v>--</v>
+      </c>
+      <c r="W17" t="str">
+        <v>--</v>
+      </c>
+      <c r="X17" t="str">
+        <v>17:00;</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>○</v>
+      </c>
+      <c r="Z17" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA17" t="str">
+        <v>√</v>
+      </c>
+      <c r="AB17" t="str">
+        <v>√</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD17" t="str">
+        <v>○</v>
+      </c>
+      <c r="AE17" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF17" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <v>胡粤</v>
+      </c>
+      <c r="C18" t="str">
+        <v>--</v>
+      </c>
+      <c r="D18" t="str">
+        <v>--</v>
+      </c>
+      <c r="E18" t="str">
+        <v>--</v>
+      </c>
+      <c r="F18" t="str">
+        <v>休</v>
+      </c>
+      <c r="G18" t="str">
+        <v>休</v>
+      </c>
+      <c r="H18" t="str">
+        <v>17:32;</v>
+      </c>
+      <c r="I18" t="str">
+        <v>--</v>
+      </c>
+      <c r="J18" t="str">
+        <v>√</v>
+      </c>
+      <c r="K18" t="str">
+        <v>√</v>
+      </c>
+      <c r="L18" t="str">
+        <v>√</v>
+      </c>
+      <c r="M18" t="str">
+        <v>▲</v>
+      </c>
+      <c r="N18" t="str">
+        <v>休</v>
+      </c>
+      <c r="O18" t="str">
+        <v>√</v>
+      </c>
+      <c r="P18" t="str">
+        <v>√</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>√</v>
+      </c>
+      <c r="R18" t="str">
+        <v>√</v>
+      </c>
+      <c r="S18" t="str">
+        <v>√</v>
+      </c>
+      <c r="T18" t="str">
+        <v>休</v>
+      </c>
+      <c r="U18" t="str">
+        <v>休</v>
+      </c>
+      <c r="V18" t="str">
+        <v>○</v>
+      </c>
+      <c r="W18" t="str">
+        <v>○</v>
+      </c>
+      <c r="X18" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA18" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB18" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF18" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="str">
+        <v>冯阳🐑🐑🐑</v>
+      </c>
+      <c r="C19" t="str">
+        <v>--</v>
+      </c>
+      <c r="D19" t="str">
+        <v>--</v>
+      </c>
+      <c r="E19" t="str">
+        <v>--</v>
+      </c>
+      <c r="F19" t="str">
+        <v>休</v>
+      </c>
+      <c r="G19" t="str">
+        <v>休</v>
+      </c>
+      <c r="H19" t="str">
+        <v>--</v>
+      </c>
+      <c r="I19" t="str">
+        <v>--</v>
+      </c>
+      <c r="J19" t="str">
+        <v>--</v>
+      </c>
+      <c r="K19" t="str">
+        <v>--</v>
+      </c>
+      <c r="L19" t="str">
+        <v>--</v>
+      </c>
+      <c r="M19" t="str">
+        <v>休</v>
+      </c>
+      <c r="N19" t="str">
+        <v>休</v>
+      </c>
+      <c r="O19" t="str">
+        <v>--</v>
+      </c>
+      <c r="P19" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>--</v>
+      </c>
+      <c r="R19" t="str">
+        <v>--</v>
+      </c>
+      <c r="S19" t="str">
+        <v>--</v>
+      </c>
+      <c r="T19" t="str">
+        <v>休</v>
+      </c>
+      <c r="U19" t="str">
+        <v>休</v>
+      </c>
+      <c r="V19" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="W19" t="str">
+        <v>○</v>
+      </c>
+      <c r="X19" t="str">
+        <v>○</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>○</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>○</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC19" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD19" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE19" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF19" t="str">
+        <v>○</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <v>王宗华</v>
+      </c>
+      <c r="C20" t="str">
+        <v>--</v>
+      </c>
+      <c r="D20" t="str">
+        <v>--</v>
+      </c>
+      <c r="E20" t="str">
+        <v>--</v>
+      </c>
+      <c r="F20" t="str">
+        <v>休</v>
+      </c>
+      <c r="G20" t="str">
+        <v>休</v>
+      </c>
+      <c r="H20" t="str">
+        <v>--</v>
+      </c>
+      <c r="I20" t="str">
+        <v>--</v>
+      </c>
+      <c r="J20" t="str">
+        <v>--</v>
+      </c>
+      <c r="K20" t="str">
+        <v>--</v>
+      </c>
+      <c r="L20" t="str">
+        <v>--</v>
+      </c>
+      <c r="M20" t="str">
+        <v>休</v>
+      </c>
+      <c r="N20" t="str">
+        <v>休</v>
+      </c>
+      <c r="O20" t="str">
+        <v>--</v>
+      </c>
+      <c r="P20" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>--</v>
+      </c>
+      <c r="R20" t="str">
+        <v>--</v>
+      </c>
+      <c r="S20" t="str">
+        <v>--</v>
+      </c>
+      <c r="T20" t="str">
+        <v>休</v>
+      </c>
+      <c r="U20" t="str">
+        <v>休</v>
+      </c>
+      <c r="V20" t="str">
+        <v>--</v>
+      </c>
+      <c r="W20" t="str">
+        <v>--</v>
+      </c>
+      <c r="X20" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z20" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA20" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AB20" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD20" t="str">
+        <v>○</v>
+      </c>
+      <c r="AE20" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF20" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>王丽</v>
+      </c>
+      <c r="C21" t="str">
+        <v>--</v>
+      </c>
+      <c r="D21" t="str">
+        <v>--</v>
+      </c>
+      <c r="E21" t="str">
+        <v>--</v>
+      </c>
+      <c r="F21" t="str">
+        <v>休</v>
+      </c>
+      <c r="G21" t="str">
+        <v>休</v>
+      </c>
+      <c r="H21" t="str">
+        <v>--</v>
+      </c>
+      <c r="I21" t="str">
+        <v>--</v>
+      </c>
+      <c r="J21" t="str">
+        <v>--</v>
+      </c>
+      <c r="K21" t="str">
+        <v>--</v>
+      </c>
+      <c r="L21" t="str">
+        <v>--</v>
+      </c>
+      <c r="M21" t="str">
+        <v>休</v>
+      </c>
+      <c r="N21" t="str">
+        <v>休</v>
+      </c>
+      <c r="O21" t="str">
+        <v>--</v>
+      </c>
+      <c r="P21" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>--</v>
+      </c>
+      <c r="R21" t="str">
+        <v>--</v>
+      </c>
+      <c r="S21" t="str">
+        <v>--</v>
+      </c>
+      <c r="T21" t="str">
+        <v>休</v>
+      </c>
+      <c r="U21" t="str">
+        <v>休</v>
+      </c>
+      <c r="V21" t="str">
+        <v>--</v>
+      </c>
+      <c r="W21" t="str">
+        <v>--</v>
+      </c>
+      <c r="X21" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA21" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB21" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC21" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD21" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE21" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF21" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>罗雪珂</v>
+      </c>
+      <c r="C22" t="str">
+        <v>--</v>
+      </c>
+      <c r="D22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="E22" t="str">
+        <v>--</v>
+      </c>
+      <c r="F22" t="str">
+        <v>▲</v>
+      </c>
+      <c r="G22" t="str">
+        <v>休</v>
+      </c>
+      <c r="H22" t="str">
+        <v>--</v>
+      </c>
+      <c r="I22" t="str">
+        <v>--</v>
+      </c>
+      <c r="J22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="K22" t="str">
+        <v>▲</v>
+      </c>
+      <c r="L22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="M22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="N22" t="str">
+        <v>休</v>
+      </c>
+      <c r="O22" t="str">
+        <v>▲</v>
+      </c>
+      <c r="P22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="R22" t="str">
+        <v>--</v>
+      </c>
+      <c r="S22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="T22" t="str">
+        <v>休</v>
+      </c>
+      <c r="U22" t="str">
+        <v>休</v>
+      </c>
+      <c r="V22" t="str">
+        <v>▲</v>
+      </c>
+      <c r="W22" t="str">
+        <v>▲</v>
+      </c>
+      <c r="X22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Z22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AF22" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <v>曾薇</v>
+      </c>
+      <c r="C23" t="str">
+        <v>--</v>
+      </c>
+      <c r="D23" t="str">
+        <v>--</v>
+      </c>
+      <c r="E23" t="str">
+        <v>--</v>
+      </c>
+      <c r="F23" t="str">
+        <v>休</v>
+      </c>
+      <c r="G23" t="str">
+        <v>休</v>
+      </c>
+      <c r="H23" t="str">
+        <v>--</v>
+      </c>
+      <c r="I23" t="str">
+        <v>--</v>
+      </c>
+      <c r="J23" t="str">
+        <v>--</v>
+      </c>
+      <c r="K23" t="str">
+        <v>--</v>
+      </c>
+      <c r="L23" t="str">
+        <v>--</v>
+      </c>
+      <c r="M23" t="str">
+        <v>休</v>
+      </c>
+      <c r="N23" t="str">
+        <v>休</v>
+      </c>
+      <c r="O23" t="str">
+        <v>--</v>
+      </c>
+      <c r="P23" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>--</v>
+      </c>
+      <c r="R23" t="str">
+        <v>--</v>
+      </c>
+      <c r="S23" t="str">
+        <v>--</v>
+      </c>
+      <c r="T23" t="str">
+        <v>休</v>
+      </c>
+      <c r="U23" t="str">
+        <v>休</v>
+      </c>
+      <c r="V23" t="str">
+        <v>--</v>
+      </c>
+      <c r="W23" t="str">
+        <v>--</v>
+      </c>
+      <c r="X23" t="str">
+        <v>08:30;</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z23" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE23" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF23" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>陈甲戌</v>
+      </c>
+      <c r="C24" t="str">
+        <v>--</v>
+      </c>
+      <c r="D24" t="str">
+        <v>--</v>
+      </c>
+      <c r="E24" t="str">
+        <v>--</v>
+      </c>
+      <c r="F24" t="str">
+        <v>休</v>
+      </c>
+      <c r="G24" t="str">
+        <v>休</v>
+      </c>
+      <c r="H24" t="str">
+        <v>▲</v>
+      </c>
+      <c r="I24" t="str">
+        <v>--</v>
+      </c>
+      <c r="J24" t="str">
+        <v>11:41;</v>
+      </c>
+      <c r="K24" t="str">
+        <v>√</v>
+      </c>
+      <c r="L24" t="str">
+        <v>12:09;</v>
+      </c>
+      <c r="M24" t="str">
+        <v>休</v>
+      </c>
+      <c r="N24" t="str">
+        <v>▲</v>
+      </c>
+      <c r="O24" t="str">
+        <v>○</v>
+      </c>
+      <c r="P24" t="str">
+        <v>○</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>√</v>
+      </c>
+      <c r="R24" t="str">
+        <v>√</v>
+      </c>
+      <c r="S24" t="str">
+        <v>▲</v>
+      </c>
+      <c r="T24" t="str">
+        <v>▲</v>
+      </c>
+      <c r="U24" t="str">
+        <v>休</v>
+      </c>
+      <c r="V24" t="str">
+        <v>08:27;</v>
+      </c>
+      <c r="W24" t="str">
+        <v>√</v>
+      </c>
+      <c r="X24" t="str">
+        <v>09:35;</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z24" t="str">
+        <v>08:26;</v>
+      </c>
+      <c r="AA24" t="str">
+        <v>11:35;</v>
+      </c>
+      <c r="AB24" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC24" t="str">
+        <v>08:21;</v>
+      </c>
+      <c r="AD24" t="str">
+        <v>14:57;</v>
+      </c>
+      <c r="AE24" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF24" t="str">
+        <v>○</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>任毅</v>
+      </c>
+      <c r="C25" t="str">
+        <v>--</v>
+      </c>
+      <c r="D25" t="str">
+        <v>--</v>
+      </c>
+      <c r="E25" t="str">
+        <v>--</v>
+      </c>
+      <c r="F25" t="str">
+        <v>√</v>
+      </c>
+      <c r="G25" t="str">
+        <v>休</v>
+      </c>
+      <c r="H25" t="str">
+        <v>--</v>
+      </c>
+      <c r="I25" t="str">
+        <v>21:54;</v>
+      </c>
+      <c r="J25" t="str">
+        <v>08:03;</v>
+      </c>
+      <c r="K25" t="str">
+        <v>08:29;</v>
+      </c>
+      <c r="L25" t="str">
+        <v>○</v>
+      </c>
+      <c r="M25" t="str">
+        <v>√</v>
+      </c>
+      <c r="N25" t="str">
+        <v>休</v>
+      </c>
+      <c r="O25" t="str">
+        <v>√</v>
+      </c>
+      <c r="P25" t="str">
+        <v>○</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>√</v>
+      </c>
+      <c r="R25" t="str">
+        <v>√</v>
+      </c>
+      <c r="S25" t="str">
+        <v>√</v>
+      </c>
+      <c r="T25" t="str">
+        <v>休</v>
+      </c>
+      <c r="U25" t="str">
+        <v>休</v>
+      </c>
+      <c r="V25" t="str">
+        <v>○</v>
+      </c>
+      <c r="W25" t="str">
+        <v>○</v>
+      </c>
+      <c r="X25" t="str">
+        <v>○</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z25" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA25" t="str">
+        <v>√</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>○</v>
+      </c>
+      <c r="AD25" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE25" t="str">
+        <v>08:17;</v>
+      </c>
+      <c r="AF25" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>欧国庆</v>
+      </c>
+      <c r="C26" t="str">
+        <v>--</v>
+      </c>
+      <c r="D26" t="str">
+        <v>--</v>
+      </c>
+      <c r="E26" t="str">
+        <v>--</v>
+      </c>
+      <c r="F26" t="str">
+        <v>休</v>
+      </c>
+      <c r="G26" t="str">
+        <v>休</v>
+      </c>
+      <c r="H26" t="str">
+        <v>--</v>
+      </c>
+      <c r="I26" t="str">
+        <v>--</v>
+      </c>
+      <c r="J26" t="str">
+        <v>--</v>
+      </c>
+      <c r="K26" t="str">
+        <v>--</v>
+      </c>
+      <c r="L26" t="str">
+        <v>--</v>
+      </c>
+      <c r="M26" t="str">
+        <v>休</v>
+      </c>
+      <c r="N26" t="str">
+        <v>休</v>
+      </c>
+      <c r="O26" t="str">
+        <v>--</v>
+      </c>
+      <c r="P26" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>--</v>
+      </c>
+      <c r="R26" t="str">
+        <v>--</v>
+      </c>
+      <c r="S26" t="str">
+        <v>--</v>
+      </c>
+      <c r="T26" t="str">
+        <v>休</v>
+      </c>
+      <c r="U26" t="str">
+        <v>休</v>
+      </c>
+      <c r="V26" t="str">
+        <v>--</v>
+      </c>
+      <c r="W26" t="str">
+        <v>--</v>
+      </c>
+      <c r="X26" t="str">
+        <v>17:30;</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AD26" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AE26" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF26" t="str">
+        <v>▲；○</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>潘雪柔</v>
+      </c>
+      <c r="C27" t="str">
+        <v>--</v>
+      </c>
+      <c r="D27" t="str">
+        <v>--</v>
+      </c>
+      <c r="E27" t="str">
+        <v>--</v>
+      </c>
+      <c r="F27" t="str">
+        <v>休</v>
+      </c>
+      <c r="G27" t="str">
+        <v>休</v>
+      </c>
+      <c r="H27" t="str">
+        <v>--</v>
+      </c>
+      <c r="I27" t="str">
+        <v>--</v>
+      </c>
+      <c r="J27" t="str">
+        <v>--</v>
+      </c>
+      <c r="K27" t="str">
+        <v>--</v>
+      </c>
+      <c r="L27" t="str">
+        <v>--</v>
+      </c>
+      <c r="M27" t="str">
+        <v>休</v>
+      </c>
+      <c r="N27" t="str">
+        <v>休</v>
+      </c>
+      <c r="O27" t="str">
+        <v>√</v>
+      </c>
+      <c r="P27" t="str">
+        <v>√</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>√</v>
+      </c>
+      <c r="R27" t="str">
+        <v>√</v>
+      </c>
+      <c r="S27" t="str">
+        <v>√</v>
+      </c>
+      <c r="T27" t="str">
+        <v>休</v>
+      </c>
+      <c r="U27" t="str">
+        <v>休</v>
+      </c>
+      <c r="V27" t="str">
+        <v>▲</v>
+      </c>
+      <c r="W27" t="str">
+        <v>√</v>
+      </c>
+      <c r="X27" t="str">
+        <v>√</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA27" t="str">
+        <v>√</v>
+      </c>
+      <c r="AB27" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC27" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD27" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE27" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF27" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>张澍宇</v>
+      </c>
+      <c r="C28" t="str">
+        <v>--</v>
+      </c>
+      <c r="D28" t="str">
+        <v>--</v>
+      </c>
+      <c r="E28" t="str">
+        <v>--</v>
+      </c>
+      <c r="F28" t="str">
+        <v>休</v>
+      </c>
+      <c r="G28" t="str">
+        <v>休</v>
+      </c>
+      <c r="H28" t="str">
+        <v>--</v>
+      </c>
+      <c r="I28" t="str">
+        <v>--</v>
+      </c>
+      <c r="J28" t="str">
+        <v>--</v>
+      </c>
+      <c r="K28" t="str">
+        <v>--</v>
+      </c>
+      <c r="L28" t="str">
+        <v>--</v>
+      </c>
+      <c r="M28" t="str">
+        <v>休</v>
+      </c>
+      <c r="N28" t="str">
+        <v>休</v>
+      </c>
+      <c r="O28" t="str">
+        <v>--</v>
+      </c>
+      <c r="P28" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>--</v>
+      </c>
+      <c r="R28" t="str">
+        <v>--</v>
+      </c>
+      <c r="S28" t="str">
+        <v>--</v>
+      </c>
+      <c r="T28" t="str">
+        <v>休</v>
+      </c>
+      <c r="U28" t="str">
+        <v>休</v>
+      </c>
+      <c r="V28" t="str">
+        <v>--</v>
+      </c>
+      <c r="W28" t="str">
+        <v>--</v>
+      </c>
+      <c r="X28" t="str">
+        <v>15:47;</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>19:15;</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>08:38;</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>08:30;</v>
+      </c>
+      <c r="AD28" t="str">
+        <v>09:14;</v>
+      </c>
+      <c r="AE28" t="str">
+        <v>08:38;</v>
+      </c>
+      <c r="AF28" t="str">
+        <v>08:55;</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>罗蓓</v>
+      </c>
+      <c r="C29" t="str">
+        <v>--</v>
+      </c>
+      <c r="D29" t="str">
+        <v>17:10;</v>
+      </c>
+      <c r="E29" t="str">
+        <v>09:42;</v>
+      </c>
+      <c r="F29" t="str">
+        <v>17:00;</v>
+      </c>
+      <c r="G29" t="str">
+        <v>休</v>
+      </c>
+      <c r="H29" t="str">
+        <v>○</v>
+      </c>
+      <c r="I29" t="str">
+        <v>○</v>
+      </c>
+      <c r="J29" t="str">
+        <v>√</v>
+      </c>
+      <c r="K29" t="str">
+        <v>√</v>
+      </c>
+      <c r="L29" t="str">
+        <v>√</v>
+      </c>
+      <c r="M29" t="str">
+        <v>○</v>
+      </c>
+      <c r="N29" t="str">
+        <v>休</v>
+      </c>
+      <c r="O29" t="str">
+        <v>√</v>
+      </c>
+      <c r="P29" t="str">
+        <v>√</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>√</v>
+      </c>
+      <c r="R29" t="str">
+        <v>√</v>
+      </c>
+      <c r="S29" t="str">
+        <v>√</v>
+      </c>
+      <c r="T29" t="str">
+        <v>休</v>
+      </c>
+      <c r="U29" t="str">
+        <v>休</v>
+      </c>
+      <c r="V29" t="str">
+        <v>√</v>
+      </c>
+      <c r="W29" t="str">
+        <v>○</v>
+      </c>
+      <c r="X29" t="str">
+        <v>√</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>√</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>√</v>
+      </c>
+      <c r="AD29" t="str">
+        <v>√</v>
+      </c>
+      <c r="AE29" t="str">
+        <v>○</v>
+      </c>
+      <c r="AF29" t="str">
+        <v>--</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>莫幼波</v>
+      </c>
+      <c r="C30" t="str">
+        <v>--</v>
+      </c>
+      <c r="D30" t="str">
+        <v>--</v>
+      </c>
+      <c r="E30" t="str">
+        <v>--</v>
+      </c>
+      <c r="F30" t="str">
+        <v>休</v>
+      </c>
+      <c r="G30" t="str">
+        <v>休</v>
+      </c>
+      <c r="H30" t="str">
+        <v>--</v>
+      </c>
+      <c r="I30" t="str">
+        <v>--</v>
+      </c>
+      <c r="J30" t="str">
+        <v>--</v>
+      </c>
+      <c r="K30" t="str">
+        <v>--</v>
+      </c>
+      <c r="L30" t="str">
+        <v>--</v>
+      </c>
+      <c r="M30" t="str">
+        <v>休</v>
+      </c>
+      <c r="N30" t="str">
+        <v>休</v>
+      </c>
+      <c r="O30" t="str">
+        <v>--</v>
+      </c>
+      <c r="P30" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>--</v>
+      </c>
+      <c r="R30" t="str">
+        <v>--</v>
+      </c>
+      <c r="S30" t="str">
+        <v>--</v>
+      </c>
+      <c r="T30" t="str">
+        <v>休</v>
+      </c>
+      <c r="U30" t="str">
+        <v>休</v>
+      </c>
+      <c r="V30" t="str">
+        <v>--</v>
+      </c>
+      <c r="W30" t="str">
+        <v>--</v>
+      </c>
+      <c r="X30" t="str">
+        <v>18:10;</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>○</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>○</v>
+      </c>
+      <c r="AA30" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB30" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC30" t="str">
+        <v>○</v>
+      </c>
+      <c r="AD30" t="str">
+        <v>○</v>
+      </c>
+      <c r="AE30" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF30" t="str">
+        <v>√</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>朱龙</v>
+      </c>
+      <c r="C31" t="str">
+        <v>--</v>
+      </c>
+      <c r="D31" t="str">
+        <v>--</v>
+      </c>
+      <c r="E31" t="str">
+        <v>--</v>
+      </c>
+      <c r="F31" t="str">
+        <v>休</v>
+      </c>
+      <c r="G31" t="str">
+        <v>休</v>
+      </c>
+      <c r="H31" t="str">
+        <v>--</v>
+      </c>
+      <c r="I31" t="str">
+        <v>--</v>
+      </c>
+      <c r="J31" t="str">
+        <v>--</v>
+      </c>
+      <c r="K31" t="str">
+        <v>--</v>
+      </c>
+      <c r="L31" t="str">
+        <v>--</v>
+      </c>
+      <c r="M31" t="str">
+        <v>休</v>
+      </c>
+      <c r="N31" t="str">
+        <v>休</v>
+      </c>
+      <c r="O31" t="str">
+        <v>--</v>
+      </c>
+      <c r="P31" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>--</v>
+      </c>
+      <c r="R31" t="str">
+        <v>--</v>
+      </c>
+      <c r="S31" t="str">
+        <v>--</v>
+      </c>
+      <c r="T31" t="str">
+        <v>休</v>
+      </c>
+      <c r="U31" t="str">
+        <v>休</v>
+      </c>
+      <c r="V31" t="str">
+        <v>--</v>
+      </c>
+      <c r="W31" t="str">
+        <v>--</v>
+      </c>
+      <c r="X31" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>16:53;</v>
+      </c>
+      <c r="Z31" t="str">
+        <v>12:17;</v>
+      </c>
+      <c r="AA31" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB31" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC31" t="str">
+        <v>14:53;</v>
+      </c>
+      <c r="AD31" t="str">
+        <v>14:34;</v>
+      </c>
+      <c r="AE31" t="str">
+        <v>15:04;</v>
+      </c>
+      <c r="AF31" t="str">
+        <v>09:18;</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>唐晓</v>
+      </c>
+      <c r="C32" t="str">
+        <v>--</v>
+      </c>
+      <c r="D32" t="str">
+        <v>--</v>
+      </c>
+      <c r="E32" t="str">
+        <v>--</v>
+      </c>
+      <c r="F32" t="str">
+        <v>休</v>
+      </c>
+      <c r="G32" t="str">
+        <v>休</v>
+      </c>
+      <c r="H32" t="str">
+        <v>--</v>
+      </c>
+      <c r="I32" t="str">
+        <v>--</v>
+      </c>
+      <c r="J32" t="str">
+        <v>--</v>
+      </c>
+      <c r="K32" t="str">
+        <v>--</v>
+      </c>
+      <c r="L32" t="str">
+        <v>--</v>
+      </c>
+      <c r="M32" t="str">
+        <v>休</v>
+      </c>
+      <c r="N32" t="str">
+        <v>休</v>
+      </c>
+      <c r="O32" t="str">
+        <v>--</v>
+      </c>
+      <c r="P32" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>--</v>
+      </c>
+      <c r="R32" t="str">
+        <v>--</v>
+      </c>
+      <c r="S32" t="str">
+        <v>--</v>
+      </c>
+      <c r="T32" t="str">
+        <v>休</v>
+      </c>
+      <c r="U32" t="str">
+        <v>休</v>
+      </c>
+      <c r="V32" t="str">
+        <v>--</v>
+      </c>
+      <c r="W32" t="str">
+        <v>--</v>
+      </c>
+      <c r="X32" t="str">
+        <v>17:30;</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z32" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA32" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC32" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AD32" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AE32" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF32" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>陈俊杰</v>
+      </c>
+      <c r="C33" t="str">
+        <v>--</v>
+      </c>
+      <c r="D33" t="str">
+        <v>--</v>
+      </c>
+      <c r="E33" t="str">
+        <v>--</v>
+      </c>
+      <c r="F33" t="str">
+        <v>休</v>
+      </c>
+      <c r="G33" t="str">
+        <v>休</v>
+      </c>
+      <c r="H33" t="str">
+        <v>--</v>
+      </c>
+      <c r="I33" t="str">
+        <v>--</v>
+      </c>
+      <c r="J33" t="str">
+        <v>--</v>
+      </c>
+      <c r="K33" t="str">
+        <v>--</v>
+      </c>
+      <c r="L33" t="str">
+        <v>--</v>
+      </c>
+      <c r="M33" t="str">
+        <v>休</v>
+      </c>
+      <c r="N33" t="str">
+        <v>休</v>
+      </c>
+      <c r="O33" t="str">
+        <v>--</v>
+      </c>
+      <c r="P33" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>--</v>
+      </c>
+      <c r="R33" t="str">
+        <v>--</v>
+      </c>
+      <c r="S33" t="str">
+        <v>--</v>
+      </c>
+      <c r="T33" t="str">
+        <v>休</v>
+      </c>
+      <c r="U33" t="str">
+        <v>休</v>
+      </c>
+      <c r="V33" t="str">
+        <v>--</v>
+      </c>
+      <c r="W33" t="str">
+        <v>--</v>
+      </c>
+      <c r="X33" t="str">
+        <v>17:18;</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA33" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB33" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC33" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AD33" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="AE33" t="str">
+        <v>√</v>
+      </c>
+      <c r="AF33" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>夏小利</v>
+      </c>
+      <c r="C34" t="str">
+        <v>17:20;</v>
+      </c>
+      <c r="D34" t="str">
+        <v>▲</v>
+      </c>
+      <c r="E34" t="str">
+        <v>--</v>
+      </c>
+      <c r="F34" t="str">
+        <v>○</v>
+      </c>
+      <c r="G34" t="str">
+        <v>休</v>
+      </c>
+      <c r="H34" t="str">
+        <v>√</v>
+      </c>
+      <c r="I34" t="str">
+        <v>○</v>
+      </c>
+      <c r="J34" t="str">
+        <v>○</v>
+      </c>
+      <c r="K34" t="str">
+        <v>○</v>
+      </c>
+      <c r="L34" t="str">
+        <v>○</v>
+      </c>
+      <c r="M34" t="str">
+        <v>休</v>
+      </c>
+      <c r="N34" t="str">
+        <v>休</v>
+      </c>
+      <c r="O34" t="str">
+        <v>○</v>
+      </c>
+      <c r="P34" t="str">
+        <v>○</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>○</v>
+      </c>
+      <c r="R34" t="str">
+        <v>○</v>
+      </c>
+      <c r="S34" t="str">
+        <v>√</v>
+      </c>
+      <c r="T34" t="str">
+        <v>休</v>
+      </c>
+      <c r="U34" t="str">
+        <v>休</v>
+      </c>
+      <c r="V34" t="str">
+        <v>√</v>
+      </c>
+      <c r="W34" t="str">
+        <v>--</v>
+      </c>
+      <c r="X34" t="str">
+        <v>○</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>○</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>○</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>○</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC34" t="str">
+        <v>○</v>
+      </c>
+      <c r="AD34" t="str">
+        <v>○</v>
+      </c>
+      <c r="AE34" t="str">
+        <v>○</v>
+      </c>
+      <c r="AF34" t="str">
+        <v>○</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="str">
+        <v>桑明宇</v>
+      </c>
+      <c r="C35" t="str">
+        <v>--</v>
+      </c>
+      <c r="D35" t="str">
+        <v>--</v>
+      </c>
+      <c r="E35" t="str">
+        <v>--</v>
+      </c>
+      <c r="F35" t="str">
+        <v>休</v>
+      </c>
+      <c r="G35" t="str">
+        <v>休</v>
+      </c>
+      <c r="H35" t="str">
+        <v>--</v>
+      </c>
+      <c r="I35" t="str">
+        <v>--</v>
+      </c>
+      <c r="J35" t="str">
+        <v>--</v>
+      </c>
+      <c r="K35" t="str">
+        <v>--</v>
+      </c>
+      <c r="L35" t="str">
+        <v>--</v>
+      </c>
+      <c r="M35" t="str">
+        <v>休</v>
+      </c>
+      <c r="N35" t="str">
+        <v>休</v>
+      </c>
+      <c r="O35" t="str">
+        <v>--</v>
+      </c>
+      <c r="P35" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>--</v>
+      </c>
+      <c r="R35" t="str">
+        <v>--</v>
+      </c>
+      <c r="S35" t="str">
+        <v>--</v>
+      </c>
+      <c r="T35" t="str">
+        <v>休</v>
+      </c>
+      <c r="U35" t="str">
+        <v>休</v>
+      </c>
+      <c r="V35" t="str">
+        <v>--</v>
+      </c>
+      <c r="W35" t="str">
+        <v>--</v>
+      </c>
+      <c r="X35" t="str">
+        <v>17:30;</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>▲</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>休</v>
+      </c>
+      <c r="AB35" t="str">
+        <v>休</v>
+      </c>
+      <c r="AC35" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AD35" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AE35" t="str">
+        <v>▲</v>
+      </c>
+      <c r="AF35" t="str">
+        <v>▲</v>
+      </c>
+    </row>
+  </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/demo/demo-format.xlsx
+++ b/demo/demo-format.xlsx
@@ -703,7 +703,7 @@
         <v>16:34;</v>
       </c>
       <c r="Y3" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="Z3" t="str">
         <v>○</v>
@@ -718,10 +718,10 @@
         <v>10:25;</v>
       </c>
       <c r="AD3" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AE3" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AF3" t="str">
         <v>▲</v>
@@ -798,7 +798,7 @@
         <v>√</v>
       </c>
       <c r="X4" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="Y4" t="str">
         <v>√</v>
@@ -807,7 +807,7 @@
         <v>√</v>
       </c>
       <c r="AA4" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AB4" t="str">
         <v>休</v>
@@ -979,7 +979,7 @@
         <v>--</v>
       </c>
       <c r="S6" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="T6" t="str">
         <v>√</v>
@@ -1003,7 +1003,7 @@
         <v>▲</v>
       </c>
       <c r="AA6" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="AB6" t="str">
         <v>休</v>
@@ -1344,7 +1344,7 @@
         <v>▲</v>
       </c>
       <c r="J10" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="K10" t="str">
         <v>√</v>
@@ -1362,13 +1362,13 @@
         <v>▲</v>
       </c>
       <c r="P10" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Q10" t="str">
         <v>√</v>
       </c>
       <c r="R10" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="S10" t="str">
         <v>08:32;</v>
@@ -1395,7 +1395,7 @@
         <v>√</v>
       </c>
       <c r="AA10" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AB10" t="str">
         <v>休</v>
@@ -1404,13 +1404,13 @@
         <v>√</v>
       </c>
       <c r="AD10" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AE10" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AF10" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
     </row>
     <row r="11">
@@ -1597,7 +1597,7 @@
         <v>休</v>
       </c>
       <c r="AC12" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AD12" t="str">
         <v>20:50;</v>
@@ -1606,7 +1606,7 @@
         <v>08:39;</v>
       </c>
       <c r="AF12" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
     </row>
     <row r="13">
@@ -1781,16 +1781,16 @@
         <v>▲；○</v>
       </c>
       <c r="Y14" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="Z14" t="str">
         <v>--</v>
       </c>
       <c r="AA14" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AB14" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AC14" t="str">
         <v>--</v>
@@ -1799,10 +1799,10 @@
         <v>--</v>
       </c>
       <c r="AE14" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AF14" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
     </row>
     <row r="15">
@@ -1879,10 +1879,10 @@
         <v>▲；○</v>
       </c>
       <c r="Y15" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="Z15" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AA15" t="str">
         <v>休</v>
@@ -1894,13 +1894,13 @@
         <v>08:35;</v>
       </c>
       <c r="AD15" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AE15" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AF15" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
     </row>
     <row r="16">
@@ -2081,13 +2081,13 @@
         <v>--</v>
       </c>
       <c r="AA17" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AB17" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AC17" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AD17" t="str">
         <v>○</v>
@@ -2164,20 +2164,20 @@
         <v>休</v>
       </c>
       <c r="V18" t="str">
+        <v>√</v>
+      </c>
+      <c r="W18" t="str">
+        <v>√</v>
+      </c>
+      <c r="X18" t="str">
+        <v>▲；○</v>
+      </c>
+      <c r="Y18" t="str">
         <v>○</v>
       </c>
-      <c r="W18" t="str">
+      <c r="Z18" t="str">
         <v>○</v>
       </c>
-      <c r="X18" t="str">
-        <v>▲</v>
-      </c>
-      <c r="Y18" t="str">
-        <v>√</v>
-      </c>
-      <c r="Z18" t="str">
-        <v>√</v>
-      </c>
       <c r="AA18" t="str">
         <v>休</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>√</v>
       </c>
       <c r="AE18" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AF18" t="str">
         <v>√</v>
@@ -2262,16 +2262,16 @@
         <v>休</v>
       </c>
       <c r="V19" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="W19" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="X19" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Y19" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Z19" t="str">
         <v>√</v>
@@ -2292,7 +2292,7 @@
         <v>√</v>
       </c>
       <c r="AF19" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
     </row>
     <row r="20">
@@ -2372,25 +2372,25 @@
         <v>--</v>
       </c>
       <c r="Z20" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AA20" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AB20" t="str">
         <v>休</v>
       </c>
       <c r="AC20" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AD20" t="str">
         <v>○</v>
       </c>
       <c r="AE20" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AF20" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
     </row>
     <row r="21">
@@ -2467,10 +2467,10 @@
         <v>▲；○</v>
       </c>
       <c r="Y21" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="Z21" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AA21" t="str">
         <v>休</v>
@@ -2485,10 +2485,10 @@
         <v>--</v>
       </c>
       <c r="AE21" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AF21" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
     </row>
     <row r="22">
@@ -2502,7 +2502,7 @@
         <v>--</v>
       </c>
       <c r="D22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="E22" t="str">
         <v>--</v>
@@ -2520,16 +2520,16 @@
         <v>--</v>
       </c>
       <c r="J22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="K22" t="str">
         <v>▲</v>
       </c>
       <c r="L22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="M22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="N22" t="str">
         <v>休</v>
@@ -2538,16 +2538,16 @@
         <v>▲</v>
       </c>
       <c r="P22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="Q22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="R22" t="str">
         <v>--</v>
       </c>
       <c r="S22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="T22" t="str">
         <v>休</v>
@@ -2562,28 +2562,28 @@
         <v>▲</v>
       </c>
       <c r="X22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="Y22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="Z22" t="str">
         <v>▲；○</v>
       </c>
       <c r="AA22" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AB22" t="str">
         <v>休</v>
       </c>
       <c r="AC22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="AD22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="AE22" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="AF22" t="str">
         <v>▲</v>
@@ -2666,19 +2666,19 @@
         <v>--</v>
       </c>
       <c r="Z23" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AA23" t="str">
         <v>休</v>
       </c>
       <c r="AB23" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="AC23" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AD23" t="str">
-        <v>√</v>
+        <v>○</v>
       </c>
       <c r="AE23" t="str">
         <v>--</v>
@@ -2728,13 +2728,13 @@
         <v>休</v>
       </c>
       <c r="N24" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="O24" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="P24" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Q24" t="str">
         <v>√</v>
@@ -2743,7 +2743,7 @@
         <v>√</v>
       </c>
       <c r="S24" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="T24" t="str">
         <v>▲</v>
@@ -2820,7 +2820,7 @@
         <v>08:29;</v>
       </c>
       <c r="L25" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="M25" t="str">
         <v>√</v>
@@ -2832,7 +2832,7 @@
         <v>√</v>
       </c>
       <c r="P25" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Q25" t="str">
         <v>√</v>
@@ -2850,13 +2850,13 @@
         <v>休</v>
       </c>
       <c r="V25" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="W25" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="X25" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Y25" t="str">
         <v>▲</v>
@@ -2871,7 +2871,7 @@
         <v>休</v>
       </c>
       <c r="AC25" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AD25" t="str">
         <v>√</v>
@@ -2972,13 +2972,13 @@
         <v>▲</v>
       </c>
       <c r="AD26" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
       <c r="AE26" t="str">
         <v>▲</v>
       </c>
       <c r="AF26" t="str">
-        <v>▲；○</v>
+        <v>▲</v>
       </c>
     </row>
     <row r="27">
@@ -3200,65 +3200,65 @@
         <v>休</v>
       </c>
       <c r="H29" t="str">
+        <v>√</v>
+      </c>
+      <c r="I29" t="str">
+        <v>√</v>
+      </c>
+      <c r="J29" t="str">
+        <v>√</v>
+      </c>
+      <c r="K29" t="str">
+        <v>√</v>
+      </c>
+      <c r="L29" t="str">
+        <v>√</v>
+      </c>
+      <c r="M29" t="str">
+        <v>√</v>
+      </c>
+      <c r="N29" t="str">
+        <v>休</v>
+      </c>
+      <c r="O29" t="str">
+        <v>√</v>
+      </c>
+      <c r="P29" t="str">
         <v>○</v>
       </c>
-      <c r="I29" t="str">
+      <c r="Q29" t="str">
+        <v>√</v>
+      </c>
+      <c r="R29" t="str">
+        <v>√</v>
+      </c>
+      <c r="S29" t="str">
+        <v>√</v>
+      </c>
+      <c r="T29" t="str">
+        <v>休</v>
+      </c>
+      <c r="U29" t="str">
+        <v>休</v>
+      </c>
+      <c r="V29" t="str">
+        <v>√</v>
+      </c>
+      <c r="W29" t="str">
+        <v>√</v>
+      </c>
+      <c r="X29" t="str">
+        <v>√</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>√</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>√</v>
+      </c>
+      <c r="AA29" t="str">
         <v>○</v>
       </c>
-      <c r="J29" t="str">
-        <v>√</v>
-      </c>
-      <c r="K29" t="str">
-        <v>√</v>
-      </c>
-      <c r="L29" t="str">
-        <v>√</v>
-      </c>
-      <c r="M29" t="str">
-        <v>○</v>
-      </c>
-      <c r="N29" t="str">
-        <v>休</v>
-      </c>
-      <c r="O29" t="str">
-        <v>√</v>
-      </c>
-      <c r="P29" t="str">
-        <v>√</v>
-      </c>
-      <c r="Q29" t="str">
-        <v>√</v>
-      </c>
-      <c r="R29" t="str">
-        <v>√</v>
-      </c>
-      <c r="S29" t="str">
-        <v>√</v>
-      </c>
-      <c r="T29" t="str">
-        <v>休</v>
-      </c>
-      <c r="U29" t="str">
-        <v>休</v>
-      </c>
-      <c r="V29" t="str">
-        <v>√</v>
-      </c>
-      <c r="W29" t="str">
-        <v>○</v>
-      </c>
-      <c r="X29" t="str">
-        <v>√</v>
-      </c>
-      <c r="Y29" t="str">
-        <v>√</v>
-      </c>
-      <c r="Z29" t="str">
-        <v>√</v>
-      </c>
-      <c r="AA29" t="str">
-        <v>√</v>
-      </c>
       <c r="AB29" t="str">
         <v>休</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>√</v>
       </c>
       <c r="AE29" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AF29" t="str">
         <v>--</v>
@@ -3349,10 +3349,10 @@
         <v>18:10;</v>
       </c>
       <c r="Y30" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Z30" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AA30" t="str">
         <v>休</v>
@@ -3361,10 +3361,10 @@
         <v>休</v>
       </c>
       <c r="AC30" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AD30" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AE30" t="str">
         <v>√</v>
@@ -3678,7 +3678,7 @@
         <v>17:20;</v>
       </c>
       <c r="D34" t="str">
-        <v>▲</v>
+        <v>▲；○</v>
       </c>
       <c r="E34" t="str">
         <v>--</v>
@@ -3693,16 +3693,16 @@
         <v>√</v>
       </c>
       <c r="I34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="J34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="K34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="L34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="M34" t="str">
         <v>休</v>
@@ -3711,16 +3711,16 @@
         <v>休</v>
       </c>
       <c r="O34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="P34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Q34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="R34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="S34" t="str">
         <v>√</v>
@@ -3738,13 +3738,13 @@
         <v>--</v>
       </c>
       <c r="X34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Y34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="Z34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AA34" t="str">
         <v>○</v>
@@ -3753,16 +3753,16 @@
         <v>休</v>
       </c>
       <c r="AC34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AD34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AE34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
       <c r="AF34" t="str">
-        <v>○</v>
+        <v>√</v>
       </c>
     </row>
     <row r="35">
